--- a/output/0c710442-6047-497d-ba64-d9c31122e53b/0c710442-6047-497d-ba64-d9c31122e53b_notes_standard_cropped_df.xlsx
+++ b/output/0c710442-6047-497d-ba64-d9c31122e53b/0c710442-6047-497d-ba64-d9c31122e53b_notes_standard_cropped_df.xlsx
@@ -31,13 +31,14 @@
     <sheet name="4_7_fd791fd0-d8c8-32" sheetId="22" r:id="rId22"/>
     <sheet name="4_7_b1818398-7624-37" sheetId="23" r:id="rId23"/>
     <sheet name="4_7_412c019a-25e7-31" sheetId="24" r:id="rId24"/>
+    <sheet name="4_7_d493819c-94d0-30" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="143">
   <si>
     <t>line_item_0</t>
   </si>
@@ -63,6 +64,9 @@
     <t>Short-term deposits</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>$000</t>
   </si>
   <si>
@@ -286,9 +290,6 @@
   </si>
   <si>
     <t>Golf carts and similarassets subject to operating leases</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>At 1 January 2021</t>
@@ -857,10 +858,10 @@
         <v>55804</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -874,24 +875,27 @@
         <v>34386</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
       <c r="C4">
         <v>90190</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -905,10 +909,10 @@
         <v>14850</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -922,24 +926,27 @@
         <v>34888</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
       <c r="C7">
         <v>49738</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -975,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -989,10 +996,10 @@
         <v>2339</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>107</v>
@@ -1009,10 +1016,10 @@
         <v>6494</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>107</v>
@@ -1029,10 +1036,10 @@
         <v>2054</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>107</v>
@@ -1049,10 +1056,10 @@
         <v>7004</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>107</v>
@@ -1069,10 +1076,10 @@
         <v>-285</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>107</v>
@@ -1089,10 +1096,10 @@
         <v>510</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>107</v>
@@ -1109,10 +1116,10 @@
         <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>107</v>
@@ -1129,10 +1136,10 @@
         <v>-1294</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>107</v>
@@ -1182,10 +1189,10 @@
         <v>3984</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -1199,24 +1206,27 @@
         <v>20726</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
       <c r="C4">
         <v>24710</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -1224,7 +1234,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>110</v>
@@ -1233,10 +1243,10 @@
         <v>59550</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1244,7 +1254,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>110</v>
@@ -1253,16 +1263,19 @@
         <v>1394</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>110</v>
       </c>
@@ -1270,16 +1283,19 @@
         <v>60944</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>110</v>
       </c>
@@ -1287,10 +1303,10 @@
         <v>85654</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>2021</v>
@@ -1304,10 +1320,10 @@
         <v>3276</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -1321,24 +1337,27 @@
         <v>21080</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
       <c r="C11">
         <v>24356</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -1346,7 +1365,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>110</v>
@@ -1355,10 +1374,10 @@
         <v>45764</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -1366,7 +1385,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>110</v>
@@ -1375,16 +1394,19 @@
         <v>3086</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
       <c r="B14" t="s">
         <v>110</v>
       </c>
@@ -1392,16 +1414,19 @@
         <v>48850</v>
       </c>
       <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
       <c r="B15" t="s">
         <v>110</v>
       </c>
@@ -1409,10 +1434,10 @@
         <v>73206</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -1456,16 +1481,16 @@
         <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>2223</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -1476,16 +1501,16 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -1496,16 +1521,16 @@
         <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -1513,19 +1538,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1533,19 +1558,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -1556,16 +1581,16 @@
         <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>1772</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -1576,16 +1601,16 @@
         <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1772</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -1596,16 +1621,16 @@
         <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>1360</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -1613,19 +1638,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>-909</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -1633,19 +1658,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>2223</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -1689,16 +1714,16 @@
         <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>6734</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -1709,16 +1734,16 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>3324</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -1729,16 +1754,16 @@
         <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>6757</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -1749,16 +1774,16 @@
         <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>3178</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -1802,16 +1827,16 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>50211</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -1822,16 +1847,16 @@
         <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -1842,33 +1867,36 @@
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>4308</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>54519</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -1879,16 +1907,16 @@
         <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>120000</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -1899,16 +1927,16 @@
         <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>99790</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2021</v>
@@ -1919,33 +1947,36 @@
         <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>14473</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>234263</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>2021</v>
@@ -1956,16 +1987,16 @@
         <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>288782</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>2021</v>
@@ -1976,16 +2007,16 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>61414</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -1996,16 +2027,16 @@
         <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>60000</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -2016,33 +2047,36 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>4223</v>
       </c>
       <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>125637</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -2053,16 +2087,16 @@
         <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>60000</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -2073,16 +2107,16 @@
         <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>134474</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>2020</v>
@@ -2093,33 +2127,36 @@
         <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>12825</v>
       </c>
       <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>207299</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -2130,16 +2167,16 @@
         <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>332936</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -2163,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2181,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2198,10 +2235,10 @@
         <v>385000</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>122</v>
@@ -2221,10 +2258,10 @@
         <v>120000</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>122</v>
@@ -2244,10 +2281,10 @@
         <v>265000</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
         <v>122</v>
@@ -2267,10 +2304,10 @@
         <v>384065</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>122</v>
@@ -2290,10 +2327,10 @@
         <v>120000</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>122</v>
@@ -2313,10 +2350,10 @@
         <v>264065</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
         <v>122</v>
@@ -2362,14 +2399,17 @@
       <c r="A2" t="s">
         <v>123</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2">
         <v>12540</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2419,10 +2459,10 @@
         <v>1826</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -2439,10 +2479,10 @@
         <v>41794</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -2459,10 +2499,10 @@
         <v>43620</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -2479,10 +2519,10 @@
         <v>9397</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -2499,10 +2539,10 @@
         <v>53017</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -2519,10 +2559,10 @@
         <v>2157</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -2539,10 +2579,10 @@
         <v>41239</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -2559,10 +2599,10 @@
         <v>43396</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -2579,10 +2619,10 @@
         <v>10522</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -2599,10 +2639,10 @@
         <v>53918</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -2649,10 +2689,10 @@
         <v>14323</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -2666,10 +2706,10 @@
         <v>10096</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -2716,10 +2756,10 @@
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -2733,10 +2773,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -2750,10 +2790,10 @@
         <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -2767,24 +2807,27 @@
         <v>698</v>
       </c>
       <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
       <c r="C6">
         <v>906</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -2798,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -2815,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -2832,10 +2875,10 @@
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -2849,24 +2892,27 @@
         <v>333</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
       <c r="C11">
         <v>389</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -2902,24 +2948,27 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2">
         <v>11024</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2021</v>
@@ -2927,22 +2976,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>2021</v>
@@ -2950,42 +2999,45 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>2021</v>
@@ -2993,22 +3045,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>153110</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>2021</v>
@@ -3016,62 +3068,68 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>-3017</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>150093</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>161296</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>2021</v>
@@ -3079,22 +3137,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>345072</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>2021</v>
@@ -3102,59 +3160,65 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>-6849</v>
       </c>
       <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>17</v>
       </c>
       <c r="C12">
         <v>338223</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
       <c r="C13">
         <v>11035</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13">
         <v>2020</v>
@@ -3162,22 +3226,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>2020</v>
@@ -3185,42 +3249,45 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16">
         <v>2020</v>
@@ -3228,22 +3295,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17">
         <v>2020</v>
@@ -3251,62 +3318,68 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>157114</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>168227</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20">
         <v>2020</v>
@@ -3314,22 +3387,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>363784</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>2020</v>
@@ -3337,42 +3410,45 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22">
         <v>-7806</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>355978</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>2020</v>
@@ -3419,10 +3495,10 @@
         <v>42373</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -3436,24 +3512,27 @@
         <v>3292</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
       <c r="C4">
         <v>45665</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -3467,10 +3546,10 @@
         <v>40102</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -3484,24 +3563,27 @@
         <v>3514</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
       <c r="C7">
         <v>43616</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -3548,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -3565,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -3582,24 +3664,27 @@
         <v>231</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
       <c r="C5">
         <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -3613,10 +3698,10 @@
         <v>1885</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -3630,10 +3715,10 @@
         <v>450</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -3647,24 +3732,27 @@
         <v>45</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
       <c r="C9">
         <v>2380</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -3714,10 +3802,10 @@
         <v>17127</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -3734,10 +3822,10 @@
         <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -3754,10 +3842,10 @@
         <v>471</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -3774,10 +3862,10 @@
         <v>-510</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -3794,10 +3882,10 @@
         <v>17357</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -3814,10 +3902,10 @@
         <v>14489</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -3834,10 +3922,10 @@
         <v>311</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -3854,10 +3942,10 @@
         <v>-2389</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -3874,10 +3962,10 @@
         <v>1130</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -3894,10 +3982,10 @@
         <v>13541</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -3944,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -3961,24 +4049,27 @@
         <v>642</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
       <c r="C4">
         <v>642</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -3992,10 +4083,10 @@
         <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -4009,24 +4100,27 @@
         <v>330</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
       <c r="C7">
         <v>566</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -4039,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4073,10 +4167,10 @@
         <v>63330</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -4090,10 +4184,10 @@
         <v>18999</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -4101,35 +4195,321 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C4">
-        <v>43450</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>-1708</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>-203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>17357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9">
+        <v>43450</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>100</v>
       </c>
+      <c r="C10">
+        <v>13035</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>174</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>13541</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2">
+        <v>2339</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3">
+        <v>2054</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>-285</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
       <c r="C5">
-        <v>13035</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5">
         <v>2020</v>
       </c>
     </row>
@@ -4168,16 +4548,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>10623</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4185,16 +4565,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>4180</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -4202,16 +4582,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>-3439</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -4219,16 +4599,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>11364</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -4236,16 +4616,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>-1464</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -4253,16 +4633,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>2021</v>
@@ -4270,16 +4650,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>9894</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>2021</v>
@@ -4320,19 +4700,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>89762</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -4340,19 +4720,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>-4802</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -4360,19 +4740,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>84960</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -4380,19 +4760,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>101866</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -4400,19 +4780,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>-249</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -4420,19 +4800,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>101617</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -4473,19 +4853,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>2448</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -4493,36 +4873,39 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2346</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>4794</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -4530,19 +4913,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1527</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -4550,36 +4933,39 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>2697</v>
       </c>
       <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>4224</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -4603,16 +4989,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -4632,31 +5018,31 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2">
         <v>10550</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2">
         <v>2021</v>
@@ -4664,28 +5050,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>848</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3">
         <v>2021</v>
@@ -4693,25 +5079,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4">
         <v>-1973</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4">
         <v>2021</v>
@@ -4719,25 +5105,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5">
         <v>2021</v>
@@ -4745,31 +5131,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6">
         <v>9637</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6">
         <v>2021</v>
@@ -4777,28 +5163,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7">
         <v>4567</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7">
         <v>2021</v>
@@ -4806,28 +5192,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8">
         <v>1694</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8">
         <v>2021</v>
@@ -4835,25 +5221,25 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>-1702</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9">
         <v>2021</v>
@@ -4861,25 +5247,25 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10">
         <v>211</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10">
         <v>2021</v>
@@ -4887,28 +5273,28 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11">
         <v>4770</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11">
         <v>2021</v>
@@ -4916,31 +5302,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12">
         <v>4867</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12">
         <v>2021</v>
@@ -4948,31 +5334,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <v>5983</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J13">
         <v>2020</v>
@@ -4980,31 +5366,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14">
         <v>50945</v>
       </c>
       <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
         <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
       </c>
       <c r="J14">
         <v>2021</v>
@@ -5012,28 +5398,28 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15">
         <v>6335</v>
       </c>
       <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
         <v>8</v>
-      </c>
-      <c r="I15" t="s">
-        <v>83</v>
       </c>
       <c r="J15">
         <v>2021</v>
@@ -5041,25 +5427,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16">
         <v>-5381</v>
       </c>
       <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
         <v>8</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
       </c>
       <c r="J16">
         <v>2021</v>
@@ -5067,25 +5453,25 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17">
         <v>-313</v>
       </c>
       <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
         <v>8</v>
-      </c>
-      <c r="I17" t="s">
-        <v>83</v>
       </c>
       <c r="J17">
         <v>2021</v>
@@ -5093,31 +5479,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18">
         <v>51586</v>
       </c>
       <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
         <v>8</v>
-      </c>
-      <c r="I18" t="s">
-        <v>83</v>
       </c>
       <c r="J18">
         <v>2021</v>
@@ -5125,28 +5511,28 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19">
         <v>22062</v>
       </c>
       <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
         <v>8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>83</v>
       </c>
       <c r="J19">
         <v>2021</v>
@@ -5154,28 +5540,28 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20">
         <v>4517</v>
       </c>
       <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
         <v>8</v>
-      </c>
-      <c r="I20" t="s">
-        <v>83</v>
       </c>
       <c r="J20">
         <v>2021</v>
@@ -5183,25 +5569,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21">
         <v>-3728</v>
       </c>
       <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
         <v>8</v>
-      </c>
-      <c r="I21" t="s">
-        <v>83</v>
       </c>
       <c r="J21">
         <v>2021</v>
@@ -5209,25 +5595,25 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22">
         <v>-159</v>
       </c>
       <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
         <v>8</v>
-      </c>
-      <c r="I22" t="s">
-        <v>83</v>
       </c>
       <c r="J22">
         <v>2021</v>
@@ -5235,28 +5621,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23">
         <v>22692</v>
       </c>
       <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
         <v>8</v>
-      </c>
-      <c r="I23" t="s">
-        <v>83</v>
       </c>
       <c r="J23">
         <v>2021</v>
@@ -5264,31 +5650,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24">
         <v>28894</v>
       </c>
       <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
         <v>8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>83</v>
       </c>
       <c r="J24">
         <v>2021</v>
@@ -5296,31 +5682,31 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25">
         <v>28883</v>
       </c>
       <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
         <v>8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>83</v>
       </c>
       <c r="J25">
         <v>2020</v>
@@ -5364,13 +5750,13 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <v>1063</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>89</v>
@@ -5381,16 +5767,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>89</v>
@@ -5404,13 +5790,13 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>89</v>
@@ -5424,13 +5810,13 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>89</v>
@@ -5441,16 +5827,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>1063</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>89</v>
@@ -5470,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>89</v>
@@ -5490,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>89</v>
@@ -5510,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>89</v>
@@ -5530,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>89</v>
@@ -5541,7 +5927,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -5550,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>89</v>
@@ -5561,16 +5947,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>1063</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
         <v>89</v>
@@ -5581,16 +5967,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>1063</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>89</v>
@@ -5604,13 +5990,13 @@
         <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14">
         <v>8231</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
@@ -5621,16 +6007,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15">
         <v>336</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>90</v>
@@ -5644,13 +6030,13 @@
         <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>-79</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
@@ -5664,13 +6050,13 @@
         <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -5681,16 +6067,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>8497</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
@@ -5710,7 +6096,7 @@
         <v>5868</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>90</v>
@@ -5730,7 +6116,7 @@
         <v>1345</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>90</v>
@@ -5750,7 +6136,7 @@
         <v>-79</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>90</v>
@@ -5770,7 +6156,7 @@
         <v>-9</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>90</v>
@@ -5781,7 +6167,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
@@ -5790,7 +6176,7 @@
         <v>7125</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>90</v>
@@ -5801,16 +6187,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>1372</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
         <v>90</v>
@@ -5821,16 +6207,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25">
         <v>2363</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>90</v>
@@ -5844,13 +6230,13 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>622</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>91</v>
@@ -5861,16 +6247,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>91</v>
@@ -5884,13 +6270,13 @@
         <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>91</v>
@@ -5904,13 +6290,13 @@
         <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
         <v>91</v>
@@ -5921,16 +6307,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>622</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
         <v>91</v>
@@ -5950,7 +6336,7 @@
         <v>593</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -5970,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>91</v>
@@ -5990,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
         <v>91</v>
@@ -6010,7 +6396,7 @@
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
         <v>91</v>
@@ -6021,7 +6407,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>88</v>
@@ -6030,7 +6416,7 @@
         <v>622</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
         <v>91</v>
@@ -6041,16 +6427,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
         <v>91</v>
@@ -6061,16 +6447,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
         <v>91</v>
@@ -6084,16 +6470,16 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>9916</v>
       </c>
       <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
         <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>83</v>
       </c>
       <c r="F38">
         <v>2021</v>
@@ -6101,19 +6487,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>336</v>
       </c>
       <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
         <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
       </c>
       <c r="F39">
         <v>2021</v>
@@ -6124,16 +6510,16 @@
         <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40">
         <v>-79</v>
       </c>
       <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
         <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>83</v>
       </c>
       <c r="F40">
         <v>2021</v>
@@ -6144,16 +6530,16 @@
         <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
       <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
         <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>83</v>
       </c>
       <c r="F41">
         <v>2021</v>
@@ -6161,19 +6547,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42">
         <v>10182</v>
       </c>
       <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
         <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>83</v>
       </c>
       <c r="F42">
         <v>2021</v>
@@ -6190,10 +6576,10 @@
         <v>6461</v>
       </c>
       <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
         <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>83</v>
       </c>
       <c r="F43">
         <v>2021</v>
@@ -6210,10 +6596,10 @@
         <v>1345</v>
       </c>
       <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
         <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>83</v>
       </c>
       <c r="F44">
         <v>2021</v>
@@ -6230,10 +6616,10 @@
         <v>-79</v>
       </c>
       <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
         <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>83</v>
       </c>
       <c r="F45">
         <v>2021</v>
@@ -6250,10 +6636,10 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
         <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
       </c>
       <c r="F46">
         <v>2021</v>
@@ -6261,7 +6647,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>88</v>
@@ -6270,10 +6656,10 @@
         <v>7747</v>
       </c>
       <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
         <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>83</v>
       </c>
       <c r="F47">
         <v>2021</v>
@@ -6281,19 +6667,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48">
         <v>2435</v>
       </c>
       <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
         <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>83</v>
       </c>
       <c r="F48">
         <v>2021</v>
@@ -6301,19 +6687,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>3455</v>
       </c>
       <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
         <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>83</v>
       </c>
       <c r="F49">
         <v>2020</v>
@@ -6363,10 +6749,10 @@
         <v>17127</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -6383,10 +6769,10 @@
         <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -6403,10 +6789,10 @@
         <v>471</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -6423,10 +6809,10 @@
         <v>-510</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -6443,10 +6829,10 @@
         <v>17357</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -6463,10 +6849,10 @@
         <v>14489</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -6483,10 +6869,10 @@
         <v>311</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -6503,10 +6889,10 @@
         <v>-2389</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -6523,10 +6909,10 @@
         <v>1130</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -6543,10 +6929,10 @@
         <v>13541</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -6593,10 +6979,10 @@
         <v>63330</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2021</v>
@@ -6610,10 +6996,10 @@
         <v>18999</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2021</v>
@@ -6627,10 +7013,10 @@
         <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2021</v>
@@ -6644,10 +7030,10 @@
         <v>-1708</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2021</v>
@@ -6661,10 +7047,10 @@
         <v>-203</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2021</v>
@@ -6678,10 +7064,10 @@
         <v>17357</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2021</v>
@@ -6695,10 +7081,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>2021</v>
@@ -6712,10 +7098,10 @@
         <v>43450</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -6729,10 +7115,10 @@
         <v>13035</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -6746,10 +7132,10 @@
         <v>311</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -6763,10 +7149,10 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -6780,10 +7166,10 @@
         <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -6797,10 +7183,10 @@
         <v>13541</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -6814,10 +7200,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>2020</v>
